--- a/inputs/0 - GRS II/Versão Antiga/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/inputs/0 - GRS II/Versão Antiga/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29523"/>
   <workbookPr/>
   <xr:revisionPtr revIDLastSave="1" documentId="11_48BE6F872BA8F2B68F9FF3AFD4FCE9B8E9FE9E6E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D2E5D28-6291-4168-A4E4-FE7F59A8CFFB}"/>
   <bookViews>
